--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53938.33927435219</v>
+        <v>10733729.51559608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53938.33927435219</v>
+        <v>10733729.51559608</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5253.6399370462</v>
+        <v>717293.6094802336</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5253.6399370462</v>
+        <v>717293.6094802336</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419101691.792665</v>
+        <v>57955741.80181356</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11748.29017442508</v>
+        <v>1292261.591566236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22674.25581277448</v>
+        <v>2456546.953565543</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33600.22145112388</v>
+        <v>3620832.315564852</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45028.71394550054</v>
+        <v>4805722.974034119</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56356.87027826103</v>
+        <v>5970646.73634177</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67685.0266110215</v>
+        <v>7135570.498649419</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79013.18294378198</v>
+        <v>8300494.260957065</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90341.33927654247</v>
+        <v>9465418.02326471</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101656.9419536419</v>
+        <v>10623108.66203881</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112942.1618268574</v>
+        <v>11788032.42434646</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124227.3817000729</v>
+        <v>12952956.18665411</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135013.2341295092</v>
+        <v>14096250.22662369</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145899.4227205616</v>
+        <v>15259511.16275489</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157629.6493395431</v>
+        <v>16300815.98825183</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169428.300355929</v>
+        <v>17334338.05614876</v>
       </c>
     </row>
   </sheetData>
@@ -27037,10 +27037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27049,16 +27049,16 @@
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>181</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
